--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>ZC</t>
+  </si>
+  <si>
+    <t>SpecCen</t>
+  </si>
+  <si>
+    <t>SpecCon</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>SpecFlat</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,1442 +389,1430 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ZC</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SpecCen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SpecCon</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SpecFlat</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8204261163617728</v>
+        <v>-0.9385929625059986</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.036325722548773</v>
+        <v>-1.238997418851035</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6299358437380941</v>
+        <v>-0.3783334348150382</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1291249829659614</v>
+        <v>-0.4940400710247358</v>
       </c>
       <c r="F2" t="n">
-        <v>2.055579790874867</v>
+        <v>1.160168493250079</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9533962886768835</v>
+        <v>-0.8561754377975086</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.375536136921907</v>
+        <v>-0.8134732933169894</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5167136204977286</v>
+        <v>-0.7295641709078443</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3818835129666104</v>
+        <v>-0.5096279780629556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.715250519940899</v>
+        <v>1.333755733585764</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.008865420396135</v>
+        <v>-0.9688648189042225</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.129274571972442</v>
+        <v>-1.05324069880232</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2885358895363923</v>
+        <v>-0.01496326259906121</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4851436282597927</v>
+        <v>-0.624725458546892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6773160943418809</v>
+        <v>0.8721209822583847</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.096577657956421</v>
+        <v>-0.9496642776035905</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.594815360030593</v>
+        <v>-1.200352144521551</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2119951812276141</v>
+        <v>-0.7013110248632837</v>
       </c>
       <c r="E5" t="n">
-        <v>1.484971645743699</v>
+        <v>0.1833437743850649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5436145324887279</v>
+        <v>1.014630544709508</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9385929625059986</v>
+        <v>-1.010075604137556</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.238997418851038</v>
+        <v>-1.358554635983617</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3783334348194635</v>
+        <v>0.606447442207657</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4940400710247358</v>
+        <v>2.959739015190293</v>
       </c>
       <c r="F6" t="n">
-        <v>1.160168493250079</v>
+        <v>0.5552405366238247</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.02418118279942</v>
+        <v>-0.8963794528349052</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.166060441172303</v>
+        <v>-1.130501222726945</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.505612526083203</v>
+        <v>-0.5324403433821705</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4426753712795513</v>
+        <v>-0.2302171907414143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7540571941108607</v>
+        <v>1.72848672827995</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9875582529469259</v>
+        <v>-0.9448793353015577</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.065897073959066</v>
+        <v>-0.9900398619105946</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9639413224324891</v>
+        <v>-0.2635278592107643</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5841772995042882</v>
+        <v>-0.5345658240690997</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7706795207392216</v>
+        <v>0.7333159770570888</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9318895052871388</v>
+        <v>-0.9545514349614742</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.041606641552038</v>
+        <v>-0.9842356733960539</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.123718941541431</v>
+        <v>-0.768047771222795</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4339506677879805</v>
+        <v>-0.6039725183916255</v>
       </c>
       <c r="F9" t="n">
-        <v>1.902529115304704</v>
+        <v>0.6998215310645367</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9741680787041633</v>
+        <v>-1.041591308678985</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.0068970602221</v>
+        <v>-1.357617264652833</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6342904636604183</v>
+        <v>-0.3122652382103108</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.363039047261959</v>
+        <v>-0.349562169704019</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7965168136587595</v>
+        <v>1.111287235729375</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.022049975863515</v>
+        <v>-0.9578651532515865</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.12536111271774</v>
+        <v>-0.8837181692908254</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4946114459262601</v>
+        <v>-0.7204754739142922</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5796420671608234</v>
+        <v>-0.6234230573382107</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6064243078035932</v>
+        <v>0.7007442205241344</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.024528997920025</v>
+        <v>-0.9879208649540707</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.299503521495162</v>
+        <v>-1.146163771410327</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.091751544154925</v>
+        <v>-0.1855879527676112</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4107792013562144</v>
+        <v>-0.4038409707537971</v>
       </c>
       <c r="F12" t="n">
-        <v>1.351549256023741</v>
+        <v>0.8872351969385869</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9305723990488438</v>
+        <v>-0.9769123233638624</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.207700384784157</v>
+        <v>-0.9231207855404104</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.834628670211938</v>
+        <v>-0.9902137337331274</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5981122685972882</v>
+        <v>-0.6088715628754116</v>
       </c>
       <c r="F13" t="n">
-        <v>1.513617496135042</v>
+        <v>1.098374494949924</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9448793353015577</v>
+        <v>-0.961936472746721</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9900398619105971</v>
+        <v>-1.036971463263304</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.26352785921509</v>
+        <v>-1.210955002229942</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5345658240690996</v>
+        <v>-0.2497115505344231</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7333159770570887</v>
+        <v>1.48537524646815</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9879208649540707</v>
+        <v>-0.9198465841928964</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.14616377141033</v>
+        <v>-0.984448470576328</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1855879527718693</v>
+        <v>-0.3774781524778065</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.403840970753797</v>
+        <v>-0.358572324411772</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8872351969385867</v>
+        <v>1.677296525171122</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.961453790538535</v>
+        <v>-1.008865420396135</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.051953297387453</v>
+        <v>-1.129274571972439</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.034738078115833</v>
+        <v>-0.2885358895320448</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5152213081436763</v>
+        <v>-0.4851436282597928</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8893811223610986</v>
+        <v>0.677316094341881</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9427427567035577</v>
+        <v>-0.9661954334071863</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7809034287364788</v>
+        <v>-1.075800071463906</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.689555297346288</v>
+        <v>-0.5860821981725975</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.293108725361264</v>
+        <v>-0.3046441502030831</v>
       </c>
       <c r="F17" t="n">
-        <v>1.357626376487297</v>
+        <v>0.7419062276203606</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9545514349614742</v>
+        <v>-0.9305723990488438</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9842356733960563</v>
+        <v>-1.207700384784154</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7680477712275585</v>
+        <v>-2.834628670205381</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6039725183916254</v>
+        <v>-0.5981122685972883</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6998215310645366</v>
+        <v>1.513617496135043</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.974751685374061</v>
+        <v>-0.8434111749588107</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.084680313930366</v>
+        <v>-1.195551942791411</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2743843652588611</v>
+        <v>-1.612330082419665</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6245525479143624</v>
+        <v>-0.5777703854016881</v>
       </c>
       <c r="F19" t="n">
-        <v>1.001130978111519</v>
+        <v>1.132208780685137</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.007223621054206</v>
+        <v>-1.024528997920025</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.231232261224844</v>
+        <v>-1.299503521495159</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.247100684877126</v>
+        <v>-2.091751544149013</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6031146029308692</v>
+        <v>-0.4107792013562144</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6621666794680996</v>
+        <v>1.351549256023741</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9578651532515865</v>
+        <v>-0.8204261163617728</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8837181692908278</v>
+        <v>-1.03632572254877</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7204754739190146</v>
+        <v>-0.6299358437334504</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6234230573382107</v>
+        <v>0.1291249829659614</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7007442205241343</v>
+        <v>2.055579790874867</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.042622121530366</v>
+        <v>-0.9875582529469259</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.202516386851932</v>
+        <v>-1.065897073959063</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.03266709665881216</v>
+        <v>-0.9639413224275555</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.6023137236506191</v>
+        <v>-0.5841772995042883</v>
       </c>
       <c r="F22" t="n">
-        <v>1.036800585567762</v>
+        <v>0.7706795207392219</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.9661954334071863</v>
+        <v>-0.9046179605246263</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.075800071463908</v>
+        <v>-1.21109310958657</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5860821981772032</v>
+        <v>0.5038019393801499</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.304644150203083</v>
+        <v>-0.5549683175923783</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7419062276203605</v>
+        <v>1.846570630823805</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.010075604137556</v>
+        <v>-0.9318895052871388</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.35855463598362</v>
+        <v>-1.041606641552035</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6064474422040863</v>
+        <v>-1.123718941536358</v>
       </c>
       <c r="E24" t="n">
-        <v>2.959739015190292</v>
+        <v>-0.4339506677879805</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5552405366238246</v>
+        <v>1.902529115304704</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9968826646193919</v>
+        <v>-1.042622121530366</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.058390354963009</v>
+        <v>-1.20251638685193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5149477324151943</v>
+        <v>-0.03266709665468675</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5173258500963155</v>
+        <v>-0.6023137236506192</v>
       </c>
       <c r="F25" t="n">
-        <v>1.026984994046611</v>
+        <v>1.036800585567762</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3823324556765901</v>
+        <v>-0.9562951244385465</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2437954492671913</v>
+        <v>-1.182311050313472</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2789499334131159</v>
+        <v>0.8761425242211229</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4960349857741906</v>
+        <v>0.2373799539150281</v>
       </c>
       <c r="F26" t="n">
-        <v>1.027103341541302</v>
+        <v>1.476313477032749</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9046179605246263</v>
+        <v>-1.022049975863515</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.211093109586573</v>
+        <v>-1.125361112717737</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5038019393764901</v>
+        <v>-0.4946114459217338</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5549683175923782</v>
+        <v>-0.5796420671608236</v>
       </c>
       <c r="F27" t="n">
-        <v>1.846570630823805</v>
+        <v>0.6064243078035934</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.8630120243953252</v>
+        <v>-0.9427427567035577</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.080775966445142</v>
+        <v>-0.7809034287364766</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.180102131130147</v>
+        <v>-1.689555297340725</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5191182098161058</v>
+        <v>-0.2931087253612641</v>
       </c>
       <c r="F28" t="n">
-        <v>2.169914463497973</v>
+        <v>1.357626376487297</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.9697780133661504</v>
+        <v>-1.007223621054206</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.089139616713819</v>
+        <v>-1.231232261224841</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.071905557190257</v>
+        <v>-0.2471006848728145</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.3996759780085938</v>
+        <v>-0.6031146029308693</v>
       </c>
       <c r="F29" t="n">
-        <v>1.022611282286287</v>
+        <v>0.6621666794680998</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.013001411065699</v>
+        <v>-0.961453790538535</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.239599109802341</v>
+        <v>-1.05195329738745</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.060534476489442</v>
+        <v>-1.034738078110838</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.5463806931570632</v>
+        <v>-0.5152213081436763</v>
       </c>
       <c r="F30" t="n">
-        <v>1.348039527752328</v>
+        <v>0.8893811223610988</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.961936472746721</v>
+        <v>-0.9697780133661504</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.036971463263306</v>
+        <v>-1.089139616713816</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.210955002235091</v>
+        <v>-1.07190555718523</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.2497115505344231</v>
+        <v>-0.3996759780085938</v>
       </c>
       <c r="F31" t="n">
-        <v>1.48537524646815</v>
+        <v>1.022611282286287</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.041591308678985</v>
+        <v>-0.3823324556765901</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.357617264652836</v>
+        <v>-0.2437954492671897</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3122652382146789</v>
+        <v>-0.2789499334087767</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.349562169704019</v>
+        <v>-0.4960349857741906</v>
       </c>
       <c r="F32" t="n">
-        <v>1.111287235729375</v>
+        <v>1.027103341541303</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9198465841928964</v>
+        <v>-0.974751685374061</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.9844484705763306</v>
+        <v>-1.084680313930363</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3774781524822312</v>
+        <v>-0.274384365254526</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.358572324411772</v>
+        <v>-0.6245525479143624</v>
       </c>
       <c r="F33" t="n">
-        <v>1.677296525171122</v>
+        <v>1.001130978111519</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.9043532638298147</v>
+        <v>-0.8630120243953252</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.021146900502031</v>
+        <v>-1.08077596644514</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2814073293047928</v>
+        <v>-2.180102131124158</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.7075359256020013</v>
+        <v>-0.5191182098161058</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9492912671118667</v>
+        <v>2.169914463497973</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.9496642776035905</v>
+        <v>-0.9043532638298147</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.200352144521554</v>
+        <v>-1.021146900502029</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.7013110248679894</v>
+        <v>0.2814073293086456</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1833437743850648</v>
+        <v>-0.7075359256020014</v>
       </c>
       <c r="F35" t="n">
-        <v>1.014630544709508</v>
+        <v>0.949291267111867</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9769123233638624</v>
+        <v>-0.9533962886768835</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9231207855404129</v>
+        <v>-1.375536136921904</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9902137337380837</v>
+        <v>-0.5167136204931831</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.6088715628754116</v>
+        <v>-0.3818835129666104</v>
       </c>
       <c r="F36" t="n">
-        <v>1.098374494949924</v>
+        <v>1.715250519940899</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.8434111749588107</v>
+        <v>-1.096577657956421</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.195551942791414</v>
+        <v>-1.59481536003059</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.612330082425162</v>
+        <v>-0.2119951816407973</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.577770385401688</v>
+        <v>1.484971645743699</v>
       </c>
       <c r="F37" t="n">
-        <v>1.132208780685137</v>
+        <v>0.543614532488728</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8561754377975086</v>
+        <v>-1.017887385378955</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.8134732933169916</v>
+        <v>-0.9016261597153732</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.7295641709125744</v>
+        <v>-1.992042003207132</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5096279780629556</v>
+        <v>-0.6936608159654251</v>
       </c>
       <c r="F38" t="n">
-        <v>1.333755733585763</v>
+        <v>1.23737199024634</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.9688648189042225</v>
+        <v>-1.02418118279942</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.053240698802323</v>
+        <v>-1.166060441172301</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01496326260317126</v>
+        <v>-1.505612526077799</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.6247254585468919</v>
+        <v>-0.4426753712795514</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8721209822583845</v>
+        <v>0.7540571941108609</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.9170044377788127</v>
+        <v>-0.9741680787041633</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.7645876513545143</v>
+        <v>-1.006897060222098</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1578625444812775</v>
+        <v>-0.6342904636557708</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.4363728583162029</v>
+        <v>-0.3630390472619591</v>
       </c>
       <c r="F40" t="n">
-        <v>1.33820218461654</v>
+        <v>0.7965168136587597</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.017887385378955</v>
+        <v>-0.9968826646193919</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.9016261597153755</v>
+        <v>-1.058390354963132</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.992042003212958</v>
+        <v>0.5149477324188445</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.6936608159654251</v>
+        <v>-0.5173258500963156</v>
       </c>
       <c r="F41" t="n">
-        <v>1.23737199024634</v>
+        <v>1.026984994046612</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.9562951244385465</v>
+        <v>-1.013001411065699</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.182311050313473</v>
+        <v>-1.239599109802338</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8761425242177862</v>
+        <v>-1.060534476484424</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2373799539150281</v>
+        <v>-0.5463806931570633</v>
       </c>
       <c r="F42" t="n">
-        <v>1.476313477032749</v>
+        <v>1.348039527752328</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.8963794528349052</v>
+        <v>-0.9170044377788127</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.130501222726948</v>
+        <v>-0.764587651354512</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.5324403433867296</v>
+        <v>-0.1578625444770434</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.2302171907414143</v>
+        <v>-0.436372858316203</v>
       </c>
       <c r="F43" t="n">
-        <v>1.72848672827995</v>
+        <v>1.33820218461654</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.04677100602595004</v>
+        <v>0.5419806174089975</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3583811488620351</v>
+        <v>1.02616540934692</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5340415816976917</v>
+        <v>-0.5650120745741682</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3558145765684492</v>
+        <v>2.937644898834753</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.9478950134037688</v>
+        <v>-0.5889403230981064</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5419806174089975</v>
+        <v>0.7626146547708458</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02616540934692</v>
+        <v>0.9231040476496403</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.5650120745787557</v>
+        <v>0.2217497578120543</v>
       </c>
       <c r="E45" t="n">
-        <v>2.937644898834753</v>
+        <v>1.055914439941773</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5889403230981063</v>
+        <v>-0.7913652635513687</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.208731873055338</v>
+        <v>0.6440586220901919</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.2159463470256449</v>
+        <v>0.6766901434849633</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2527845175519312</v>
+        <v>0.06640789747256921</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.2378059161291928</v>
+        <v>1.515292908262603</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9683973208380392</v>
+        <v>-0.7992912712590619</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.09146299048390481</v>
+        <v>0.8154502559844125</v>
       </c>
       <c r="C47" t="n">
-        <v>0.210792352332367</v>
+        <v>0.885890776849858</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2003650011390501</v>
+        <v>-0.1379131035556537</v>
       </c>
       <c r="E47" t="n">
-        <v>1.178882162464295</v>
+        <v>0.6933346895932837</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.9015337125983957</v>
+        <v>-0.6409493692482656</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7978021877476097</v>
+        <v>0.9501366926511303</v>
       </c>
       <c r="C48" t="n">
-        <v>1.246748597882541</v>
+        <v>1.288543108505289</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8290452335781905</v>
+        <v>-0.3577066657340712</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.6294131477899085</v>
+        <v>-0.3588490054516994</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.6228521428145246</v>
+        <v>-0.6877268012457549</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1988159016045591</v>
+        <v>-0.04677100602595004</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3027064987967391</v>
+        <v>0.358381148862036</v>
       </c>
       <c r="D49" t="n">
-        <v>0.369241248960257</v>
+        <v>0.5340415817013252</v>
       </c>
       <c r="E49" t="n">
-        <v>1.116975050094191</v>
+        <v>0.3558145765684493</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9846660887114167</v>
+        <v>-0.9478950134037689</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1752145415188193</v>
+        <v>0.2068784943758248</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3699391963926174</v>
+        <v>0.9730414144658253</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.007455175393470824</v>
+        <v>0.102757062221309</v>
       </c>
       <c r="E50" t="n">
-        <v>1.231094986309075</v>
+        <v>0.5519461128931544</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9142580709465119</v>
+        <v>-0.9181198011537158</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1167116579921103</v>
+        <v>0.3333412329205727</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8206574323318576</v>
+        <v>0.5800193008230884</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3372078078009729</v>
+        <v>0.03462654337970747</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.6654161629884856</v>
+        <v>0.3616299242617562</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.8922691035092974</v>
+        <v>-0.8878559230933825</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6027985756404411</v>
+        <v>-0.509325366130652</v>
       </c>
       <c r="C52" t="n">
-        <v>1.17266900928733</v>
+        <v>-0.02064086064750073</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001173671219153849</v>
+        <v>0.1703555466666544</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5719599634238118</v>
+        <v>0.7698347745542955</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.6392088892448189</v>
+        <v>-1.004839867096458</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1399203500988221</v>
+        <v>0.5722206577518542</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08926791953816285</v>
+        <v>0.6849512687474777</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03834686364581437</v>
+        <v>-0.2262869212306155</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3547989180745082</v>
+        <v>1.058560870661495</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8849567164518821</v>
+        <v>-0.6861196375900829</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8154502559844125</v>
+        <v>0.8634711021713233</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8858907768498576</v>
+        <v>1.182810414307915</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1379131035598705</v>
+        <v>-0.6275055352379797</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6933346895932836</v>
+        <v>0.7563532115597263</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.6409493692482655</v>
+        <v>-0.6279404711293782</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3141948386625257</v>
+        <v>0.2196695728927554</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4848940325699199</v>
+        <v>1.07384606954558</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.3864740652707283</v>
+        <v>0.3938718494984867</v>
       </c>
       <c r="E55" t="n">
-        <v>1.66594387234236</v>
+        <v>2.471912257608251</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8538125704277012</v>
+        <v>-0.8276372796360973</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5099761054384384</v>
+        <v>0.04445593132121543</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9850065718938217</v>
+        <v>1.185005456773117</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1347322440889803</v>
+        <v>0.301948183577154</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5657434102017002</v>
+        <v>4.771438775713252</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.724791377170795</v>
+        <v>-0.6798240946628812</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7626146547708458</v>
+        <v>0.5750004684689984</v>
       </c>
       <c r="C57" t="n">
-        <v>0.92310404764964</v>
+        <v>0.4101352285755661</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2217497578081497</v>
+        <v>0.1632057366630142</v>
       </c>
       <c r="E57" t="n">
-        <v>1.055914439941772</v>
+        <v>0.4337932171344922</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.7913652635513686</v>
+        <v>-0.9276105217852896</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.05200265834693443</v>
+        <v>1.016529630387123</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7103230046672948</v>
+        <v>1.317125215099983</v>
       </c>
       <c r="D58" t="n">
-        <v>1.039687867308155</v>
+        <v>0.1908508321290836</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6162930241824959</v>
+        <v>1.427842957899028</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8956159724133248</v>
+        <v>-0.561798547257219</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.100745608660386</v>
+        <v>0.5373348011552066</v>
       </c>
       <c r="C59" t="n">
-        <v>0.708503637122998</v>
+        <v>0.7814700598158122</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.42683529433081</v>
+        <v>-0.5727103986947346</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7855733964707562</v>
+        <v>0.6564756811643624</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.6521567132736841</v>
+        <v>-0.7391682296564309</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5722206577518542</v>
+        <v>0.2957387318634973</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6849512687474771</v>
+        <v>0.8428245048171807</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.2262869212349089</v>
+        <v>0.7300146356802519</v>
       </c>
       <c r="E60" t="n">
-        <v>1.058560870661495</v>
+        <v>-0.6314250322297194</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.6861196375900828</v>
+        <v>-0.817694920640396</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9501366926511303</v>
+        <v>0.9122562600645028</v>
       </c>
       <c r="C61" t="n">
-        <v>1.28854310850529</v>
+        <v>1.036920182705295</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3577066657384786</v>
+        <v>0.141695701590424</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3588490054516994</v>
+        <v>-0.5193437114713136</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6877268012457547</v>
+        <v>-0.6156352260495783</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.016529630387123</v>
+        <v>-0.208731873055338</v>
       </c>
       <c r="C62" t="n">
-        <v>1.317125215099983</v>
+        <v>-0.2159463470256434</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1908508321251522</v>
+        <v>-0.2527845175476148</v>
       </c>
       <c r="E62" t="n">
-        <v>1.427842957899028</v>
+        <v>-0.2378059161291929</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5617985472572189</v>
+        <v>-0.9683973208380394</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -1812,732 +1823,732 @@
         <v>1.108719406683263</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.002878481700102875</v>
+        <v>-0.002878481696003311</v>
       </c>
       <c r="E63" t="n">
         <v>0.9645779799639329</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7212550441019094</v>
+        <v>-0.7212550441019095</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.308867445070981</v>
+        <v>0.7978021877476097</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2178610447030944</v>
+        <v>1.246748597882541</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2023212436122988</v>
+        <v>0.8290452335815681</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9955874009703335</v>
+        <v>-0.6294131477899085</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9435126843203073</v>
+        <v>-0.6228521428145248</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5750004684689984</v>
+        <v>0.5099761054384384</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4101352285755652</v>
+        <v>0.9850065718938219</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1632057366590587</v>
+        <v>0.1347322440929604</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4337932171344921</v>
+        <v>-0.5657434102017003</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9276105217852895</v>
+        <v>-0.7247913771707951</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6440586220901919</v>
+        <v>1.117639485946898</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6766901434849627</v>
+        <v>1.233663954228697</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06640789746852978</v>
+        <v>0.2024298273503713</v>
       </c>
       <c r="E66" t="n">
-        <v>1.515292908262603</v>
+        <v>1.454864471636931</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7992912712590617</v>
+        <v>-0.7280144752944927</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.509325366130652</v>
+        <v>-0.308867445070981</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0206408606475021</v>
+        <v>0.2178610447030955</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1703555466627051</v>
+        <v>0.2023212436162202</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7698347745542955</v>
+        <v>0.9955874009703336</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.004839867096458</v>
+        <v>-0.9435126843203075</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.286575908977455</v>
+        <v>-0.1167116579921103</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7846069185917337</v>
+        <v>0.820657432331858</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2998373085027017</v>
+        <v>0.3372078078047774</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3658071712258359</v>
+        <v>-0.6654161629884857</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.8483975293526764</v>
+        <v>-0.8922691035092977</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.4621069791148505</v>
+        <v>-0.1399203500988221</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3292860865137521</v>
+        <v>0.08926791953816408</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1174836640866316</v>
+        <v>-0.03834686364168402</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4288367460171475</v>
+        <v>0.3547989180745083</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9671828483784684</v>
+        <v>-0.8849567164518823</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04445593132121543</v>
+        <v>0.9579923455893585</v>
       </c>
       <c r="C70" t="n">
-        <v>1.185005456773117</v>
+        <v>0.9958979565393234</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3019481835733189</v>
+        <v>0.02907056141444207</v>
       </c>
       <c r="E70" t="n">
-        <v>4.771438775713251</v>
+        <v>0.4492048196021112</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.679824094662881</v>
+        <v>-0.6009831454722869</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2957387318634973</v>
+        <v>0.1120314404672638</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8428245048171804</v>
+        <v>0.4014784759919796</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7300146356767884</v>
+        <v>-0.07204409141245405</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.6314250322297192</v>
+        <v>1.040625980359922</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8176949206403958</v>
+        <v>-0.8820333608403687</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5373348011552066</v>
+        <v>-0.05200265834693443</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7814700598158119</v>
+        <v>0.7103230046672953</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.5727103986993287</v>
+        <v>1.03968786731135</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6564756811643623</v>
+        <v>-0.6162930241824959</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7391682296564307</v>
+        <v>-0.895615972413325</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9579923455893585</v>
+        <v>0.1752145415188193</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9958979565393232</v>
+        <v>0.3699391963926184</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02907056141037023</v>
+        <v>-0.007455175389367288</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4492048196021112</v>
+        <v>1.231094986309075</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6009831454722867</v>
+        <v>-0.9142580709465121</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.006393304015216</v>
+        <v>-0.1843911294599219</v>
       </c>
       <c r="C74" t="n">
-        <v>1.177875687386774</v>
+        <v>0.1412914907819529</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5486504676402847</v>
+        <v>0.06467500273817593</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5607654641664714</v>
+        <v>0.2773108066817279</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.5699606359974295</v>
+        <v>-0.9376952529925207</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3333412329205727</v>
+        <v>1.006393304015216</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5800193008230877</v>
+        <v>1.177875687386774</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03462654337564045</v>
+        <v>0.5486504676439057</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3616299242617561</v>
+        <v>-0.5607654641664716</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.8878559230933822</v>
+        <v>-0.5699606359974296</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1120314404672638</v>
+        <v>0.6027985756404411</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4014784759919788</v>
+        <v>1.17266900928733</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.07204409141661364</v>
+        <v>0.001173671223249898</v>
       </c>
       <c r="E76" t="n">
-        <v>1.040625980359922</v>
+        <v>-0.5719599634238119</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8820333608403685</v>
+        <v>-0.639208889244819</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2319779692015</v>
+        <v>-0.09146299048390481</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5680107763804919</v>
+        <v>0.2107923523323681</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1424553240895181</v>
+        <v>-0.2003650011347792</v>
       </c>
       <c r="E77" t="n">
-        <v>0.940363042766952</v>
+        <v>1.178882162464295</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.8387047292044759</v>
+        <v>-0.9015337125983959</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9122562600645028</v>
+        <v>0.2319779692015</v>
       </c>
       <c r="C78" t="n">
-        <v>1.036920182705295</v>
+        <v>0.5680107763804926</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1416957015864499</v>
+        <v>0.1424553240934916</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5193437114713136</v>
+        <v>0.9403630427669522</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6156352260495782</v>
+        <v>-0.8387047292044761</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8634711021713233</v>
+        <v>0.06996568602384873</v>
       </c>
       <c r="C79" t="n">
-        <v>1.182810414307915</v>
+        <v>0.8438953126286374</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.6275055352426213</v>
+        <v>0.5077993948100464</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7563532115597262</v>
+        <v>-0.6346420349984541</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6279404711293781</v>
+        <v>-0.8704591629702406</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2068784943758248</v>
+        <v>-0.1988159016045591</v>
       </c>
       <c r="C80" t="n">
-        <v>0.973041414465825</v>
+        <v>0.3027064987967401</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1027570622173011</v>
+        <v>0.3692412489640336</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5519461128931544</v>
+        <v>1.116975050094191</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.9181198011537157</v>
+        <v>-0.9846660887114168</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.06996568602384873</v>
+        <v>-0.4621069791148505</v>
       </c>
       <c r="C81" t="n">
-        <v>0.843895312628637</v>
+        <v>0.3292860865137531</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5077993948063901</v>
+        <v>0.1174836640906267</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.634642034998454</v>
+        <v>0.4288367460171476</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.8704591629702404</v>
+        <v>-0.9671828483784686</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.117639485946898</v>
+        <v>0.3141948386625257</v>
       </c>
       <c r="C82" t="n">
-        <v>1.233663954228697</v>
+        <v>0.4848940325699206</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2024298273464499</v>
+        <v>-0.3864740652662958</v>
       </c>
       <c r="E82" t="n">
-        <v>1.454864471636931</v>
+        <v>1.66594387234236</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7280144752944926</v>
+        <v>-0.8538125704277013</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1843911294599219</v>
+        <v>1.100745608660386</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1412914907819517</v>
+        <v>0.7085036371229986</v>
       </c>
       <c r="D83" t="n">
-        <v>0.064675002734135</v>
+        <v>-0.4268352943263425</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2773108066817278</v>
+        <v>0.7855733964707563</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.9376952529925204</v>
+        <v>-0.6521567132736842</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7200122712842121</v>
+        <v>0.286575908977455</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7004449472478467</v>
+        <v>0.784606918591734</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.0261590263752692</v>
+        <v>0.2998373085065371</v>
       </c>
       <c r="E84" t="n">
-        <v>1.737059910058758</v>
+        <v>0.3658071712258359</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.8497413201313907</v>
+        <v>-0.8483975293526766</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2196695728927554</v>
+        <v>0.7200122712842121</v>
       </c>
       <c r="C85" t="n">
-        <v>1.07384606954558</v>
+        <v>0.7004449472478471</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3938718494947314</v>
+        <v>-0.02615902637114944</v>
       </c>
       <c r="E85" t="n">
-        <v>2.471912257608251</v>
+        <v>1.737059910058758</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.8276372796360971</v>
+        <v>-0.8497413201313909</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.058603606868437</v>
+        <v>-0.2121198299676874</v>
       </c>
       <c r="C86" t="n">
-        <v>1.244148128951377</v>
+        <v>-0.4118833033376265</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2703868498954132</v>
+        <v>1.130688313601484</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.6351643410432148</v>
+        <v>-0.9805148698952868</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5706943144508073</v>
+        <v>-1.036898266155104</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.55452431190716</v>
+        <v>0.9995935184073945</v>
       </c>
       <c r="C87" t="n">
-        <v>1.008717585050992</v>
+        <v>0.6712594286283782</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9236092005524768</v>
+        <v>1.01168597999617</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.015909104022468</v>
+        <v>-0.9266514282974645</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6286640923845905</v>
+        <v>-0.8869761375242143</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.12415569575741</v>
+        <v>1.55452431190716</v>
       </c>
       <c r="C88" t="n">
-        <v>0.797711970134895</v>
+        <v>1.008717585050992</v>
       </c>
       <c r="D88" t="n">
-        <v>1.195505195806756</v>
+        <v>0.9236092005557738</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.649879525439536</v>
+        <v>-1.015909104022468</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7838865672737086</v>
+        <v>-0.6286640923845908</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6741752071759548</v>
+        <v>0.3860392307788217</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7092267882087848</v>
+        <v>-0.03826844586619704</v>
       </c>
       <c r="D89" t="n">
-        <v>1.415383587235602</v>
+        <v>1.280390780880131</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.8422809736497531</v>
+        <v>-0.9310542670213027</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8826418944194813</v>
+        <v>-1.005847582272813</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3860392307788217</v>
+        <v>1.12415569575741</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.03826844586619843</v>
+        <v>0.7977119701348954</v>
       </c>
       <c r="D90" t="n">
-        <v>1.280390780877145</v>
+        <v>1.195505195809816</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.9310542670213026</v>
+        <v>-0.649879525439536</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.005847582272813</v>
+        <v>-0.7838865672737088</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.107047746667743</v>
+        <v>1.184620846018887</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4835779059361785</v>
+        <v>0.7721960063690652</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.6063378590930708</v>
+        <v>3.732726839070148</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.9765997896297812</v>
+        <v>-0.9563002705903707</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6184555977060401</v>
+        <v>-1.029374674281709</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.184620846018887</v>
+        <v>-0.6076982057367238</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7721960063690647</v>
+        <v>-0.9030272232141501</v>
       </c>
       <c r="D92" t="n">
-        <v>3.73272683906929</v>
+        <v>1.303337259029619</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.9563002705903706</v>
+        <v>-0.9580371709592896</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.029374674281709</v>
+        <v>-1.050051731015862</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9995935184073945</v>
+        <v>1.534146379496002</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6712594286283776</v>
+        <v>0.845323800558062</v>
       </c>
       <c r="D93" t="n">
-        <v>1.011685979992951</v>
+        <v>0.6262455954861099</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.9266514282974644</v>
+        <v>-0.8000972518227631</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8869761375242141</v>
+        <v>-0.7602289966402854</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.534146379496002</v>
+        <v>2.428673863508316</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8453238005580617</v>
+        <v>1.473848308363155</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6262455954825562</v>
+        <v>0.3265347980203438</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.800097251822763</v>
+        <v>-0.6816650469747821</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7602289966402852</v>
+        <v>-0.5290860484220307</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
@@ -2545,200 +2556,200 @@
         <v>3.387252510868719</v>
       </c>
       <c r="C95" t="n">
-        <v>2.275580877905075</v>
+        <v>2.275580877905073</v>
       </c>
       <c r="D95" t="n">
-        <v>2.306407797845557</v>
+        <v>2.306407797847652</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.7378667392032652</v>
+        <v>-0.7378667392032653</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.867760720223514</v>
+        <v>-0.8677607202235141</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.6076982057367238</v>
+        <v>1.91402335887819</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.9030272232141525</v>
+        <v>1.098451736055784</v>
       </c>
       <c r="D96" t="n">
-        <v>1.303337259026653</v>
+        <v>0.7131933573013797</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.9580371709592895</v>
+        <v>-0.6349652700561721</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.050051731015862</v>
+        <v>-0.6860497049795836</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.91402335887819</v>
+        <v>1.264985771905196</v>
       </c>
       <c r="C97" t="n">
-        <v>1.098451736055784</v>
+        <v>0.6306157902019497</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7131933572979015</v>
+        <v>3.332926470504857</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.634965270056172</v>
+        <v>-0.8895514127219261</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.6860497049795834</v>
+        <v>-1.023528575188294</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.184222409071507</v>
+        <v>2.058603606868437</v>
       </c>
       <c r="C98" t="n">
-        <v>1.701740508861175</v>
+        <v>1.244148128951377</v>
       </c>
       <c r="D98" t="n">
-        <v>1.2659913403217</v>
+        <v>0.2703868498992756</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.014449261067693</v>
+        <v>-0.635164341043215</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.6027073117647557</v>
+        <v>-0.5706943144508075</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.428673863508316</v>
+        <v>0.107047746667743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.473848308363156</v>
+        <v>0.4835779059361792</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3265347980165301</v>
+        <v>-0.6063378590884476</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.681665046974782</v>
+        <v>-0.9765997896297813</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.5290860484220306</v>
+        <v>-0.6184555977060402</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.264985771905196</v>
+        <v>2.213361008679814</v>
       </c>
       <c r="C100" t="n">
-        <v>0.630615790201949</v>
+        <v>1.521115306962665</v>
       </c>
       <c r="D100" t="n">
-        <v>3.332926470503652</v>
+        <v>2.984724444677784</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.8895514127219259</v>
+        <v>-0.9566927810300462</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.023528575188294</v>
+        <v>-0.9743962568184736</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.213361008679814</v>
+        <v>1.793479046793816</v>
       </c>
       <c r="C101" t="n">
-        <v>1.521115306962665</v>
+        <v>1.090303949704207</v>
       </c>
       <c r="D101" t="n">
-        <v>2.984724444676278</v>
+        <v>0.7261474199074538</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.9566927810300462</v>
+        <v>-0.958186188868495</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.9743962568184734</v>
+        <v>-0.6284920967543368</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.793479046793816</v>
+        <v>0.6741752071759548</v>
       </c>
       <c r="C102" t="n">
-        <v>1.090303949704207</v>
+        <v>0.7092267882087853</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7261474199039868</v>
+        <v>1.41538358723847</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.9581861888684949</v>
+        <v>-0.8422809736497532</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6284920967543366</v>
+        <v>-0.8826418944194814</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.2121198299676874</v>
+        <v>2.184222409071507</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4118833033376283</v>
+        <v>1.701740508861174</v>
       </c>
       <c r="D103" t="n">
-        <v>1.130688313598368</v>
+        <v>1.265991340324699</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.9805148698952867</v>
+        <v>-1.014449261067693</v>
       </c>
       <c r="F103" t="n">
-        <v>-1.036898266155104</v>
+        <v>-0.6027073117647558</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
